--- a/2017_2/204-Gnjatovic/204-1017-1-SP.xlsx
+++ b/2017_2/204-Gnjatovic/204-1017-1-SP.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\INZSERVER\RedirectedFolders\Nejab\My Documents\GitHub\PNZ\2017_2\204-Gnjatovic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>-</t>
   </si>
@@ -40,9 +45,6 @@
   </si>
   <si>
     <t>Dalmatian Loan (1931)</t>
-  </si>
-  <si>
-    <t>Table 5: Domestic public debt of the Kingdom of Yugoslavia 1929-1932</t>
   </si>
   <si>
     <r>
@@ -140,19 +142,16 @@
       <t>,  1932,  million dinars</t>
     </r>
   </si>
-  <si>
-    <t>Source: Opšta državna statistika Kraljevine Jugoslavije,  Statistički godišnjak Kraljevine Jugoslavije 1929, Beograd: 1932, p. 498, 499; Opšta državna statistika Kraljevine Jugoslavije, Statistički godišnjak Kraljevine Jugoslavije 1930, Beograd: 1933, p. 468, 469; Opšta državna statistika Kraljevine Jugoslavije, Statistički godišnjak Kraljevine Jugoslavije 1931, Beograd: 1934, , p. 466, 467.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,7 +181,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -205,25 +204,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -236,12 +223,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -250,17 +231,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pisarna">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -298,9 +287,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pisarna">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,9 +321,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -366,9 +356,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pisarna">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -541,14 +532,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
@@ -559,173 +550,151 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:6" ht="41.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="33.75" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>12</v>
+    <row r="2" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4">
+        <v>494.5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>492.9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>491.2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>489.4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5">
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="5">
-        <v>494.5</v>
-      </c>
-      <c r="D3" s="5">
-        <v>492.9</v>
+    <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>123.3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>122.2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>121</v>
       </c>
       <c r="E3" s="4">
-        <v>491.2</v>
-      </c>
-      <c r="F3" s="5">
-        <v>489.4</v>
+        <v>119.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25.5">
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="5">
-        <v>123.3</v>
-      </c>
-      <c r="D4" s="5">
-        <v>122.2</v>
-      </c>
-      <c r="E4" s="10">
-        <v>121</v>
-      </c>
-      <c r="F4" s="5">
-        <v>119.8</v>
+    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6">
+        <v>4576.1000000000004</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4586.5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4543.2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4515</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5">
+    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="9">
-        <v>4576.1000000000004</v>
-      </c>
-      <c r="D5" s="9">
-        <v>4586.5</v>
-      </c>
-      <c r="E5" s="9">
-        <v>4543.2</v>
-      </c>
-      <c r="F5" s="9">
-        <v>4515</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>150</v>
+      </c>
+      <c r="D5" s="4">
+        <v>349.2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>496.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="25.5">
+    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="10">
-        <v>150</v>
-      </c>
-      <c r="E6" s="5">
-        <v>349.2</v>
-      </c>
-      <c r="F6" s="5">
-        <v>496.1</v>
+      <c r="C6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25.5">
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="4" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="9">
+      <c r="B7" s="6">
         <v>5193.8999999999996</v>
       </c>
-      <c r="D8" s="9">
+      <c r="C7" s="6">
         <v>5351.6</v>
       </c>
-      <c r="E8" s="9">
+      <c r="D7" s="6">
         <v>5500.6</v>
       </c>
-      <c r="F8" s="9">
+      <c r="E7" s="6">
         <v>6020.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="53.25" customHeight="1">
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B9:F9"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
